--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_130__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_130__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5420,13 +5420,13 @@
                   <c:v>-0.02125883288681507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.206215858459473</c:v>
+                  <c:v>9.206212043762207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.77456855773926</c:v>
+                  <c:v>25.77458000183105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.8338623046875</c:v>
+                  <c:v>51.83385467529297</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>94.14280700683594</c:v>
@@ -5441,13 +5441,13 @@
                   <c:v>-0.02125883288681507</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.44741821289062</c:v>
+                  <c:v>94.44737243652344</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-0.02125883288681507</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90.25199890136719</c:v>
+                  <c:v>90.25204467773438</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-0.02125883288681507</c:v>
@@ -5456,28 +5456,28 @@
                   <c:v>-0.02125883288681507</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.88268280029297</c:v>
+                  <c:v>75.8826904296875</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>93.52516937255859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.53765869140625</c:v>
+                  <c:v>70.53764343261719</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>70.2027587890625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.95826721191406</c:v>
+                  <c:v>95.95829772949219</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-0.02125883288681507</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96.01748657226562</c:v>
+                  <c:v>96.01750946044922</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.27909088134766</c:v>
+                  <c:v>67.27910614013672</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>91.69576263427734</c:v>
@@ -5501,7 +5501,7 @@
                   <c:v>-0.02125883288681507</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>82.41865539550781</c:v>
+                  <c:v>82.41862487792969</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.02125883288681507</c:v>
@@ -5531,7 +5531,7 @@
                   <c:v>89.23896789550781</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>56.36095428466797</c:v>
+                  <c:v>56.3609619140625</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-0.02125883288681507</c:v>
@@ -5546,7 +5546,7 @@
                   <c:v>85.80165100097656</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>96.09564208984375</c:v>
+                  <c:v>96.09565734863281</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-0.02125883288681507</c:v>
@@ -5567,19 +5567,19 @@
                   <c:v>92.22219085693359</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>68.57222747802734</c:v>
+                  <c:v>68.57225036621094</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-0.02125883288681507</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>89.68570709228516</c:v>
+                  <c:v>89.68572235107422</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>82.71984100341797</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>92.32044219970703</c:v>
+                  <c:v>92.32045745849609</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>-0.02125883288681507</c:v>
@@ -5588,13 +5588,13 @@
                   <c:v>98.89333343505859</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>92.79138946533203</c:v>
+                  <c:v>92.79136657714844</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-0.02125883288681507</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>94.23365020751953</c:v>
+                  <c:v>94.23362731933594</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>-0.02125883288681507</c:v>
@@ -5627,13 +5627,13 @@
                   <c:v>101.3648529052734</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>95.05689239501953</c:v>
+                  <c:v>95.05686187744141</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>91.04799652099609</c:v>
+                  <c:v>91.0479736328125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>96.16962432861328</c:v>
+                  <c:v>96.16960144042969</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-0.02125883288681507</c:v>
@@ -5642,7 +5642,7 @@
                   <c:v>93.64038848876953</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>101.1409378051758</c:v>
+                  <c:v>101.1409606933594</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>78.51146697998047</c:v>
@@ -5654,7 +5654,7 @@
                   <c:v>-0.02125883288681507</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>56.07864379882812</c:v>
+                  <c:v>56.07862854003906</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>95.59304809570312</c:v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>9.206215858459473</v>
+        <v>9.206212043762207</v>
       </c>
       <c r="G3">
         <v>103</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>25.77456855773926</v>
+        <v>25.77458000183105</v>
       </c>
       <c r="G4">
         <v>103</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>51.8338623046875</v>
+        <v>51.83385467529297</v>
       </c>
       <c r="G5">
         <v>103</v>
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>94.44741821289062</v>
+        <v>94.44737243652344</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>90.25199890136719</v>
+        <v>90.25204467773438</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>75.88268280029297</v>
+        <v>75.8826904296875</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>70.53765869140625</v>
+        <v>70.53764343261719</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>95.95826721191406</v>
+        <v>95.95829772949219</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>96.01748657226562</v>
+        <v>96.01750946044922</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>67.27909088134766</v>
+        <v>67.27910614013672</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>82.41865539550781</v>
+        <v>82.41862487792969</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>56.36095428466797</v>
+        <v>56.3609619140625</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>97.0868</v>
       </c>
       <c r="F45">
-        <v>96.09564208984375</v>
+        <v>96.09565734863281</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>68.57222747802734</v>
+        <v>68.57225036621094</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>89.68570709228516</v>
+        <v>89.68572235107422</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>93.425</v>
       </c>
       <c r="F56">
-        <v>92.32044219970703</v>
+        <v>92.32045745849609</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>92.79138946533203</v>
+        <v>92.79136657714844</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>94.23365020751953</v>
+        <v>94.23362731933594</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>95.05689239501953</v>
+        <v>95.05686187744141</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>91.04799652099609</v>
+        <v>91.0479736328125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>96.16962432861328</v>
+        <v>96.16960144042969</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>101.1409378051758</v>
+        <v>101.1409606933594</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>56.07864379882812</v>
+        <v>56.07862854003906</v>
       </c>
     </row>
     <row r="82" spans="1:6">
